--- a/results.xlsx
+++ b/results.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgonc\Desktop\DA_Proj_2\DA-tsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A378D04-0163-4B4B-AD7D-AE75AA7607C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="29076" windowHeight="15756"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="graph" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -62,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="33">
   <si>
     <t>edges_25</t>
   </si>
@@ -166,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,14 +286,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -314,1824 +303,6 @@
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF00B050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF00B050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF00B050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF00B050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -2604,7 +775,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2643,6 +814,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2785,7 +957,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D3B-46D7-B71A-5416589AFB5E}"/>
             </c:ext>
@@ -2801,12 +973,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2034125392"/>
-        <c:axId val="2034125872"/>
+        <c:axId val="838793296"/>
+        <c:axId val="838797648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2034125392"/>
+        <c:axId val="838793296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +1015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2034125872"/>
+        <c:crossAx val="838797648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2851,7 +1023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2034125872"/>
+        <c:axId val="838797648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +1074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2034125392"/>
+        <c:crossAx val="838793296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2916,14 +1088,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3478,7 +1650,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB544E9-1868-4AC0-B1B6-D76A65FFD1CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CB544E9-1868-4AC0-B1B6-D76A65FFD1CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3499,65 +1671,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Data"/>
-      <sheetName val="Grafico"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v xml:space="preserve">Backtracking </v>
-          </cell>
-          <cell r="C2">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Triangular approximation</v>
-          </cell>
-          <cell r="C3">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Triangular approximation using matrix</v>
-          </cell>
-          <cell r="C4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>ACO</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Temp</v>
-          </cell>
-          <cell r="C6">
-            <v>4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3856,11 +1969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q124"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="63" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4950,8 +3063,8 @@
       <c r="D35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="4">
-        <v>0.1</v>
+      <c r="E35" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F35" s="4">
         <v>44.5</v>
@@ -6695,10 +4808,10 @@
         <color rgb="FFFFC7CE"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="52" priority="126" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="126" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5 J5:XFD5 D5:H5">
-    <cfRule type="top10" dxfId="51" priority="121" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="121" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -6735,7 +4848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6 J6:XFD6 D6:H6">
-    <cfRule type="top10" dxfId="50" priority="116" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="116" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -6772,7 +4885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 J7:XFD7 D7:H7">
-    <cfRule type="top10" dxfId="49" priority="111" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="111" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -6809,7 +4922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8 J8:XFD8 D8:H8">
-    <cfRule type="top10" dxfId="48" priority="106" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="106" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -6846,7 +4959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:B9 J9:XFD9 D9:H9">
-    <cfRule type="top10" dxfId="47" priority="101" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="101" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -6883,7 +4996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 J10:XFD10 D10:H10">
-    <cfRule type="top10" dxfId="46" priority="96" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="96" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -6920,7 +5033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11 J11:XFD11 D11:H11">
-    <cfRule type="top10" dxfId="45" priority="91" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="91" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -6957,7 +5070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12 J12:XFD12 D12:H12">
-    <cfRule type="top10" dxfId="44" priority="86" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="86" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -6994,7 +5107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 J13:XFD13 D13:H13">
-    <cfRule type="top10" dxfId="43" priority="81" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="81" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -7031,7 +5144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14 J14:XFD14 D14:H14">
-    <cfRule type="top10" dxfId="42" priority="76" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="76" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -7068,7 +5181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15 J15:XFD15 D15:H15">
-    <cfRule type="top10" dxfId="41" priority="71" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="71" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -7105,7 +5218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 J19:XFD19 D19:H19">
-    <cfRule type="top10" dxfId="40" priority="66" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="66" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -7142,7 +5255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 J20:XFD20 D20:H20">
-    <cfRule type="top10" dxfId="39" priority="61" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="61" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -7179,7 +5292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21 J21:XFD21 D21:H21">
-    <cfRule type="top10" dxfId="38" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="56" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -7216,7 +5329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I21">
-    <cfRule type="top10" dxfId="37" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="50" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -7253,7 +5366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 J16:XFD16 F16">
-    <cfRule type="top10" dxfId="36" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="45" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -7290,7 +5403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18 J18:XFD18">
-    <cfRule type="top10" dxfId="35" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="40" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -7327,7 +5440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="top10" dxfId="34" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="35" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -7364,7 +5477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="top10" dxfId="33" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="30" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -7401,7 +5514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="top10" dxfId="32" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="25" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -7438,7 +5551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="top10" dxfId="31" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="20" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -7475,7 +5588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="top10" dxfId="30" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="15" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -7512,7 +5625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="top10" dxfId="29" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="10" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -7549,7 +5662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="top10" dxfId="28" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7594,10 +5707,10 @@
         <color rgb="FFFFC7CE"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="min">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="min">
       <formula>NOT(ISERROR(SEARCH("min",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7607,10 +5720,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92531391-040B-40D0-8292-2C7E6CD91DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
